--- a/Scripts_annehuitema2003/data_output/Income_dist_housinggame_session_16_240924_EPA_IntroDays_Ommen.xlsx
+++ b/Scripts_annehuitema2003/data_output/Income_dist_housinggame_session_16_240924_EPA_IntroDays_Ommen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a040831fc7e8278/Bureaublad/BEP data analysis/Scripts_annehuitema2003/data_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_32828562ADC9BD8B5234AB3D7E426335D85282F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03142544-A6DE-4820-A8DC-440AB8DD4F51}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_32828562ADC9BD8B5234AB3D7E426335D85282F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0D33CD4-9F22-4281-A2E5-88662647D827}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,6 +618,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -912,6 +916,10 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="13" max="13" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/Scripts_annehuitema2003/data_output/Income_dist_housinggame_session_16_240924_EPA_IntroDays_Ommen.xlsx
+++ b/Scripts_annehuitema2003/data_output/Income_dist_housinggame_session_16_240924_EPA_IntroDays_Ommen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a040831fc7e8278/Bureaublad/BEP data analysis/Scripts_annehuitema2003/data_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_32828562ADC9BD8B5234AB3D7E426335D85282F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0D33CD4-9F22-4281-A2E5-88662647D827}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_32828562ADC9BD8B5234AB3D7E426335D85282F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66EFD5DC-A536-4D3C-A184-B78CB149196A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,10 +911,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
